--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 18,76</t>
+          <t>-1,43; 18,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,41; -27,04</t>
+          <t>-58,94; -26,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 8,91</t>
+          <t>-11,8; 9,04</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 367,27</t>
+          <t>-16,67; 377,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,6; -32,35</t>
+          <t>-62,33; -32,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 36,82</t>
+          <t>-32,13; 36,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,72</t>
+          <t>-1,46; 8,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,8</t>
+          <t>-2,97; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 1,97</t>
+          <t>-20,59; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -1,86</t>
+          <t>-25,57; -1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 14,02</t>
+          <t>0,04; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 10,21</t>
+          <t>-3,58; 9,89</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 318,89</t>
+          <t>-26,68; 289,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 156,02</t>
+          <t>-47,37; 215,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 2,06</t>
+          <t>-24,91; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,02; -3,01</t>
+          <t>-31,03; -2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 64,59</t>
+          <t>0,2; 62,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 47,49</t>
+          <t>-12,26; 44,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,85</t>
+          <t>0,42; 11,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,64</t>
+          <t>2,78; 16,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 0,74</t>
+          <t>-29,54; 0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,97; -6,62</t>
+          <t>-34,0; -6,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 11,61</t>
+          <t>-6,09; 12,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 13,1</t>
+          <t>-4,44; 13,25</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 775,9</t>
+          <t>-18,69; 771,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,19; 1058,5</t>
+          <t>18,56; 992,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 1,1</t>
+          <t>-33,09; 0,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,58; -8,92</t>
+          <t>-38,63; -8,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 52,97</t>
+          <t>-19,61; 57,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 58,91</t>
+          <t>-16,05; 58,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 18,09</t>
+          <t>1,13; 19,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 11,11</t>
+          <t>-4,52; 12,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 1,63</t>
+          <t>-20,49; 2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -0,32</t>
+          <t>-24,73; -0,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 17,22</t>
+          <t>0,84; 16,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 12,95</t>
+          <t>-3,92; 14,16</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,53; 203,58</t>
+          <t>5,67; 198,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 113,26</t>
+          <t>-25,82; 135,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 1,9</t>
+          <t>-23,03; 2,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,65; -1,32</t>
+          <t>-27,83; -0,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 54,42</t>
+          <t>2,18; 55,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 40,57</t>
+          <t>-9,78; 44,4</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 16,05</t>
+          <t>-7,23; 17,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 23,21</t>
+          <t>0,52; 22,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,5; -0,66</t>
+          <t>-32,62; 1,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,66; -6,97</t>
+          <t>-37,97; -5,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 11,87</t>
+          <t>-13,1; 11,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 12,09</t>
+          <t>-11,13; 12,32</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 226,21</t>
+          <t>-45,65; 282,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 362,12</t>
+          <t>-0,9; 319,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,16; -1,47</t>
+          <t>-36,45; 0,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -10,91</t>
+          <t>-42,58; -8,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 37,57</t>
+          <t>-28,65; 35,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 37,63</t>
+          <t>-23,89; 38,54</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,55</t>
+          <t>1,18; 13,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,9</t>
+          <t>-3,02; 6,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,53; -10,52</t>
+          <t>-39,23; -11,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 2,55</t>
+          <t>-27,09; 2,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 11,63</t>
+          <t>-6,58; 11,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 15,12</t>
+          <t>-4,86; 14,97</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,25; 1154,73</t>
+          <t>-7,95; 1334,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,51; -14,79</t>
+          <t>-45,17; -14,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 3,1</t>
+          <t>-30,94; 2,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 49,97</t>
+          <t>-20,65; 48,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 68,46</t>
+          <t>-15,32; 65,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 10,46</t>
+          <t>-0,82; 10,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 6,81</t>
+          <t>-3,64; 7,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-23,45; -2,96</t>
+          <t>-23,93; -3,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -2,37</t>
+          <t>-24,28; -2,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 10,34</t>
+          <t>-1,91; 10,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 8,2</t>
+          <t>-5,18; 8,28</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 182,52</t>
+          <t>-10,85; 170,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 113,05</t>
+          <t>-35,91; 123,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -4,12</t>
+          <t>-27,96; -4,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -3,27</t>
+          <t>-28,87; -3,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 39,02</t>
+          <t>-5,95; 38,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 30,32</t>
+          <t>-15,25; 30,61</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,28</t>
+          <t>-4,37; 4,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,94</t>
+          <t>1,32; 11,98</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -6,08</t>
+          <t>-24,65; -6,3</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -1,43</t>
+          <t>-21,18; -2,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,96</t>
+          <t>-4,48; 7,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 12,41</t>
+          <t>-0,21; 12,31</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 88,46</t>
+          <t>-39,65; 76,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7,79; 189,05</t>
+          <t>9,33; 187,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,14; -7,78</t>
+          <t>-28,26; -8,12</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,63; -2,09</t>
+          <t>-24,22; -2,9</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 25,14</t>
+          <t>-13,42; 27,99</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 44,38</t>
+          <t>-0,55; 44,52</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,53; 7,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,81; 7,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,32; -10,06</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-20,81; -11,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,74; 7,3</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,61; 6,22</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,61; 110,49</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>33,35; 112,09</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,71; -12,51</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-24,64; -14,52</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,63; 25,44</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,84; 21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 18,01</t>
+          <t>-0,14; 18,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -26,9</t>
+          <t>-58,64; -28,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 9,04</t>
+          <t>-12,98; 8,36</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 377,18</t>
+          <t>-9,05; 371,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,33; -32,55</t>
+          <t>-62,49; -33,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 36,71</t>
+          <t>-34,73; 31,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,27</t>
+          <t>-1,59; 8,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,67</t>
+          <t>-3,04; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 2,33</t>
+          <t>-20,19; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,57; -1,8</t>
+          <t>-24,97; -2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 13,73</t>
+          <t>-0,62; 13,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 9,89</t>
+          <t>-4,51; 9,74</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 289,41</t>
+          <t>-28,7; 276,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 215,12</t>
+          <t>-44,78; 173,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 2,67</t>
+          <t>-24,61; 4,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -2,84</t>
+          <t>-30,04; -3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 62,71</t>
+          <t>-2,22; 62,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 44,28</t>
+          <t>-15,57; 42,57</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,78</t>
+          <t>0,69; 11,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,13</t>
+          <t>3,6; 16,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 0,34</t>
+          <t>-29,59; -0,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,0; -6,06</t>
+          <t>-35,43; -5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 12,41</t>
+          <t>-5,16; 12,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 13,25</t>
+          <t>-3,95; 14,35</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 771,38</t>
+          <t>3,14; 988,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 992,88</t>
+          <t>48,75; 1257,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 0,42</t>
+          <t>-33,18; -0,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,63; -8,5</t>
+          <t>-39,55; -6,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 57,2</t>
+          <t>-17,47; 58,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 58,23</t>
+          <t>-13,06; 66,09</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 19,05</t>
+          <t>1,33; 18,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 12,09</t>
+          <t>-4,32; 11,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 2,11</t>
+          <t>-20,02; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,73; -0,51</t>
+          <t>-24,53; -0,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 16,9</t>
+          <t>0,49; 17,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 14,16</t>
+          <t>-4,91; 13,48</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,67; 198,99</t>
+          <t>3,72; 179,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 135,65</t>
+          <t>-26,38; 122,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 2,57</t>
+          <t>-22,59; 3,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -0,77</t>
+          <t>-28,02; -1,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 55,9</t>
+          <t>0,77; 55,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 44,4</t>
+          <t>-11,76; 43,49</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 17,23</t>
+          <t>-8,3; 15,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 22,88</t>
+          <t>0,77; 22,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 1,01</t>
+          <t>-32,11; 1,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -5,91</t>
+          <t>-37,97; -5,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 11,88</t>
+          <t>-13,29; 12,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 12,32</t>
+          <t>-10,78; 11,97</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 282,4</t>
+          <t>-50,75; 234,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 319,42</t>
+          <t>-2,58; 333,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 0,09</t>
+          <t>-36,04; 2,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,58; -8,2</t>
+          <t>-42,25; -7,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 35,79</t>
+          <t>-28,85; 36,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 38,54</t>
+          <t>-23,69; 37,85</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,2</t>
+          <t>1,26; 13,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,7</t>
+          <t>-2,85; 7,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,23; -11,0</t>
+          <t>-39,85; -12,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 2,03</t>
+          <t>-26,14; 2,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 11,2</t>
+          <t>-6,2; 10,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 14,97</t>
+          <t>-4,29; 15,02</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1334,34</t>
+          <t>1,93; 1380,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,11; 816,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,17; -14,85</t>
+          <t>-45,87; -16,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 2,43</t>
+          <t>-29,92; 3,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 48,55</t>
+          <t>-18,6; 46,62</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 65,0</t>
+          <t>-14,41; 63,46</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 10,47</t>
+          <t>-0,68; 10,95</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,06</t>
+          <t>-3,73; 7,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-23,93; -3,2</t>
+          <t>-24,24; -2,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -2,52</t>
+          <t>-24,03; -1,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 10,42</t>
+          <t>-2,96; 10,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 8,28</t>
+          <t>-6,8; 7,88</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 170,9</t>
+          <t>-8,75; 186,87</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 123,46</t>
+          <t>-37,45; 111,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,96; -4,49</t>
+          <t>-28,37; -3,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,87; -3,76</t>
+          <t>-28,09; -2,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 38,04</t>
+          <t>-8,25; 39,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 30,61</t>
+          <t>-19,88; 27,76</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,93</t>
+          <t>-3,97; 5,4</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,98</t>
+          <t>1,5; 11,77</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -6,3</t>
+          <t>-24,94; -5,98</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -2,33</t>
+          <t>-21,4; -1,88</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 7,44</t>
+          <t>-4,47; 7,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 12,31</t>
+          <t>-0,15; 12,81</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 76,1</t>
+          <t>-37,48; 88,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>9,33; 187,83</t>
+          <t>10,56; 172,3</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,26; -8,12</t>
+          <t>-28,76; -7,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -2,9</t>
+          <t>-24,71; -2,57</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 27,99</t>
+          <t>-13,46; 25,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 44,52</t>
+          <t>-0,83; 45,94</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,47</t>
+          <t>2,56; 7,53</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,21</t>
+          <t>2,53; 7,06</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -10,06</t>
+          <t>-19,04; -10,33</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -11,64</t>
+          <t>-20,57; -11,84</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,3</t>
+          <t>1,4; 7,42</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,22</t>
+          <t>0,85; 6,56</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>28,61; 110,49</t>
+          <t>31,68; 117,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>33,35; 112,09</t>
+          <t>28,51; 104,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -12,51</t>
+          <t>-22,3; -12,79</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -14,52</t>
+          <t>-24,41; -14,83</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,63; 25,44</t>
+          <t>4,29; 25,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,84; 21,33</t>
+          <t>2,7; 22,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 18,38</t>
+          <t>-0,4; 18,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,64; -28,04</t>
+          <t>-58,41; -27,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 8,36</t>
+          <t>-12,53; 8,91</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 371,55</t>
+          <t>-11,06; 367,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -33,55</t>
+          <t>-61,6; -32,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 31,86</t>
+          <t>-34,82; 36,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,11</t>
+          <t>-1,1; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,81</t>
+          <t>-3,41; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 3,43</t>
+          <t>-20,73; 1,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -2,83</t>
+          <t>-25,76; -1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 13,37</t>
+          <t>0,53; 14,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 9,74</t>
+          <t>-3,08; 10,21</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 276,8</t>
+          <t>-20,98; 318,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 173,4</t>
+          <t>-52,19; 156,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 4,24</t>
+          <t>-25,45; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,04; -3,93</t>
+          <t>-31,02; -3,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 62,31</t>
+          <t>1,66; 64,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 42,57</t>
+          <t>-10,87; 47,49</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 11,75</t>
+          <t>0,66; 11,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 16,32</t>
+          <t>3,3; 15,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,59; -0,42</t>
+          <t>-30,07; 0,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-35,43; -5,19</t>
+          <t>-33,97; -6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 12,29</t>
+          <t>-5,94; 11,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 14,35</t>
+          <t>-4,06; 13,1</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 988,25</t>
+          <t>-6,23; 775,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,75; 1257,9</t>
+          <t>41,19; 1058,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -0,53</t>
+          <t>-33,33; 1,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -6,89</t>
+          <t>-38,58; -8,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 58,02</t>
+          <t>-20,66; 52,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 66,09</t>
+          <t>-13,68; 58,91</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 18,82</t>
+          <t>1,79; 18,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 11,69</t>
+          <t>-4,56; 11,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 2,74</t>
+          <t>-20,43; 1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,53; -0,78</t>
+          <t>-25,05; -0,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 17,37</t>
+          <t>0,13; 17,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 13,48</t>
+          <t>-4,56; 12,95</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 179,12</t>
+          <t>9,53; 203,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 122,81</t>
+          <t>-27,37; 113,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 3,68</t>
+          <t>-23,18; 1,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -1,26</t>
+          <t>-28,65; -1,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 55,62</t>
+          <t>-0,74; 54,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 43,49</t>
+          <t>-11,72; 40,57</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 15,88</t>
+          <t>-7,03; 16,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 22,45</t>
+          <t>1,02; 23,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 1,61</t>
+          <t>-32,5; -0,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -5,25</t>
+          <t>-37,66; -6,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 12,24</t>
+          <t>-12,18; 11,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 11,97</t>
+          <t>-10,51; 12,09</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 234,15</t>
+          <t>-47,7; 226,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 333,93</t>
+          <t>-0,78; 362,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 2,15</t>
+          <t>-36,16; -1,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,25; -7,62</t>
+          <t>-42,56; -10,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 36,17</t>
+          <t>-27,41; 37,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 37,85</t>
+          <t>-23,49; 37,63</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,06</t>
+          <t>1,34; 12,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 7,93</t>
+          <t>-2,88; 6,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,85; -12,25</t>
+          <t>-39,53; -10,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 2,79</t>
+          <t>-26,4; 2,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 10,94</t>
+          <t>-7,09; 11,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 15,02</t>
+          <t>-4,5; 15,12</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,93; 1380,23</t>
+          <t>2,25; 1154,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-80,11; 816,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,87; -16,38</t>
+          <t>-45,51; -14,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 3,41</t>
+          <t>-30,44; 3,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 46,62</t>
+          <t>-21,71; 49,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 63,46</t>
+          <t>-14,33; 68,46</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 10,95</t>
+          <t>-0,54; 10,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,02</t>
+          <t>-4,29; 6,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -2,48</t>
+          <t>-23,45; -2,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -1,68</t>
+          <t>-24,7; -2,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 10,72</t>
+          <t>-3,0; 10,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 7,88</t>
+          <t>-5,99; 8,2</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 186,87</t>
+          <t>-6,01; 182,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 111,13</t>
+          <t>-41,47; 113,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -3,32</t>
+          <t>-27,93; -4,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,09; -2,09</t>
+          <t>-28,79; -3,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 39,13</t>
+          <t>-8,68; 39,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 27,76</t>
+          <t>-18,03; 30,32</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,4</t>
+          <t>-3,72; 5,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,5; 11,77</t>
+          <t>1,07; 11,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -5,98</t>
+          <t>-24,68; -6,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-21,4; -1,88</t>
+          <t>-21,38; -1,43</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,1</t>
+          <t>-5,26; 6,96</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 12,81</t>
+          <t>-0,39; 12,41</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 88,62</t>
+          <t>-36,42; 88,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,56; 172,3</t>
+          <t>7,79; 189,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -7,67</t>
+          <t>-28,14; -7,78</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,71; -2,57</t>
+          <t>-24,63; -2,09</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 25,53</t>
+          <t>-15,09; 25,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 45,94</t>
+          <t>-1,04; 44,38</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,53</t>
+          <t>2,53; 7,36</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,06</t>
+          <t>2,71; 7,44</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -10,33</t>
+          <t>-19,22; -10,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -11,84</t>
+          <t>-21,07; -11,76</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,42</t>
+          <t>1,59; 7,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,56</t>
+          <t>0,49; 6,06</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>31,68; 117,0</t>
+          <t>29,53; 110,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>28,51; 104,88</t>
+          <t>30,53; 111,31</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -12,79</t>
+          <t>-22,67; -12,58</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -14,83</t>
+          <t>-24,95; -14,62</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>4,29; 25,55</t>
+          <t>4,97; 25,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,7; 22,95</t>
+          <t>1,68; 21,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-22,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 31,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,96; -7,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,1; 26,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,27; 653,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,78; -8,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 104,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 18,09</t>
+          <t>-2,36; 16,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 1,63</t>
+          <t>-15,5; 7,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 17,22</t>
+          <t>-0,44; 18,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>49,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,53; 203,58</t>
+          <t>-15,32; 160,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 1,9</t>
+          <t>-17,78; 9,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 54,42</t>
+          <t>-0,13; 58,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P74B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 31,8</t>
+          <t>8,85; 31,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 18,76</t>
+          <t>0,44; 18,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,96; -7,65</t>
+          <t>-37,99; -9,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,41; -27,04</t>
+          <t>-59,73; -28,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 26,51</t>
+          <t>3,63; 25,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 8,91</t>
+          <t>-12,62; 8,58</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,27; 653,28</t>
+          <t>62,1; 681,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 367,27</t>
+          <t>-4,94; 366,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,78; -8,97</t>
+          <t>-39,77; -10,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,6; -32,35</t>
+          <t>-63,65; -33,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 104,23</t>
+          <t>9,93; 103,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 36,82</t>
+          <t>-35,17; 34,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,72</t>
+          <t>-1,62; 8,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,8</t>
+          <t>-2,8; 5,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 1,97</t>
+          <t>-20,8; 1,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -1,86</t>
+          <t>-26,05; -2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 14,02</t>
+          <t>-0,44; 13,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 10,21</t>
+          <t>-3,57; 8,98</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 318,89</t>
+          <t>-24,27; 295,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 156,02</t>
+          <t>-42,52; 176,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 2,06</t>
+          <t>-25,09; 2,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,02; -3,01</t>
+          <t>-30,99; -3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 64,59</t>
+          <t>-2,43; 61,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 47,49</t>
+          <t>-12,01; 40,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,85</t>
+          <t>1,18; 12,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,64</t>
+          <t>3,48; 15,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 0,74</t>
+          <t>-29,85; 0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,97; -6,62</t>
+          <t>-35,68; -7,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 11,61</t>
+          <t>-6,36; 12,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 13,1</t>
+          <t>-3,48; 13,73</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 775,9</t>
+          <t>-0,8; 834,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,19; 1058,5</t>
+          <t>24,74; 1149,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 1,1</t>
+          <t>-34,37; -0,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,58; -8,92</t>
+          <t>-40,67; -10,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 52,97</t>
+          <t>-20,81; 55,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 58,91</t>
+          <t>-11,16; 61,38</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 16,32</t>
+          <t>-1,61; 16,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 11,11</t>
+          <t>-3,82; 12,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 7,52</t>
+          <t>-16,72; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -0,32</t>
+          <t>-26,36; -1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 18,31</t>
+          <t>-1,69; 16,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 12,95</t>
+          <t>-5,14; 12,38</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 160,43</t>
+          <t>-12,6; 174,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 113,26</t>
+          <t>-23,82; 131,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 9,76</t>
+          <t>-19,19; 9,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,65; -1,32</t>
+          <t>-29,57; -1,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 58,69</t>
+          <t>-3,95; 51,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 40,57</t>
+          <t>-12,05; 38,78</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 16,05</t>
+          <t>-6,96; 16,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 23,21</t>
+          <t>0,05; 23,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-32,5; -0,66</t>
+          <t>-33,14; 1,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-37,66; -6,97</t>
+          <t>-36,81; -3,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 11,87</t>
+          <t>-12,02; 11,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 12,09</t>
+          <t>-9,91; 12,57</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 226,21</t>
+          <t>-43,03; 262,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 362,12</t>
+          <t>-2,11; 369,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,16; -1,47</t>
+          <t>-36,63; 1,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -10,91</t>
+          <t>-41,71; -6,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 37,57</t>
+          <t>-27,2; 34,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 37,63</t>
+          <t>-22,01; 39,6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,55</t>
+          <t>1,39; 13,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,9</t>
+          <t>-3,11; 6,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-39,53; -10,52</t>
+          <t>-39,45; -11,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 2,55</t>
+          <t>-26,85; 1,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 11,63</t>
+          <t>-6,55; 10,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 15,12</t>
+          <t>-4,97; 14,77</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,25; 1154,73</t>
+          <t>-5,33; 1245,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,54; 671,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,51; -14,79</t>
+          <t>-45,76; -15,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 3,1</t>
+          <t>-31,55; 1,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 49,97</t>
+          <t>-20,01; 44,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 68,46</t>
+          <t>-15,32; 63,68</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 10,46</t>
+          <t>-1,29; 10,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 6,81</t>
+          <t>-3,91; 6,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-23,45; -2,96</t>
+          <t>-25,0; -4,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -2,37</t>
+          <t>-25,64; -1,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 10,34</t>
+          <t>-2,57; 11,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 8,2</t>
+          <t>-6,7; 7,52</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 182,52</t>
+          <t>-13,45; 164,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 113,05</t>
+          <t>-37,5; 111,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -4,12</t>
+          <t>-29,2; -6,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -3,27</t>
+          <t>-30,06; -2,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 39,02</t>
+          <t>-7,78; 41,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 30,32</t>
+          <t>-19,82; 27,41</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,28</t>
+          <t>-4,73; 4,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,94</t>
+          <t>1,09; 11,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -6,08</t>
+          <t>-23,97; -5,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -1,43</t>
+          <t>-20,33; -1,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,96</t>
+          <t>-5,08; 7,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 12,41</t>
+          <t>-0,05; 12,63</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 88,46</t>
+          <t>-45,07; 77,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7,79; 189,05</t>
+          <t>7,24; 175,83</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,14; -7,78</t>
+          <t>-27,73; -7,35</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,63; -2,09</t>
+          <t>-23,53; -1,97</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 25,14</t>
+          <t>-14,83; 26,92</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 44,38</t>
+          <t>-0,21; 46,16</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,54; 7,45</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,71; 7,22</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,0; -10,59</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-21,3; -12,08</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,78; 7,47</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,51; 6,24</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,74; 115,32</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>31,16; 111,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,32; -12,99</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-25,17; -14,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,59; 25,72</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,58; 21,55</t>
         </is>
       </c>
     </row>
